--- a/docs/user-stories.xlsx
+++ b/docs/user-stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\GymLog\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FC33F-3C81-49DB-8209-2794E4CF9CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D285341-C56F-435A-9545-6C8608C67994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="735" windowWidth="21600" windowHeight="12645" xr2:uid="{6E36DC40-5F18-4EBE-9BC3-7D855008A313}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" xr2:uid="{6E36DC40-5F18-4EBE-9BC3-7D855008A313}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -144,13 +144,7 @@
     <t>Product Goal 2 - Workout</t>
   </si>
   <si>
-    <t>Übungen bearbeiten / löschen</t>
-  </si>
-  <si>
     <t>Product Goal 3 - Übungen</t>
-  </si>
-  <si>
-    <t>Sätze bearbeiten / löschen</t>
   </si>
   <si>
     <t>- Login mit E-Mail und Passwort_x000D_
@@ -166,21 +160,11 @@
 - Weiterleitung zur Login-Seite</t>
   </si>
   <si>
-    <t>- Übung kann bearbeitet werden_x000D_
-- Übung kann gelöscht werden_x000D_
-- Änderungen werden gespeichert</t>
-  </si>
-  <si>
     <t>- Pro Übung mehrere Sätze möglich_x000D_
 - Eingabe von Gewicht und Wiederholungen_x000D_
 - Sätze werden korrekt gespeichert</t>
   </si>
   <si>
-    <t>- Sätze können bearbeitet werden_x000D_
-- Sätze können gelöscht werden_x000D_
-- Änderungen werden gespeichert</t>
-  </si>
-  <si>
     <t>Hauptmenü</t>
   </si>
   <si>
@@ -197,9 +181,6 @@
   </si>
   <si>
     <t>Product Goal 4 - Sätze</t>
-  </si>
-  <si>
-    <t>möchte ich bestehende Sätze bearbeiten oder löschen können.</t>
   </si>
   <si>
     <t>Statistik</t>
@@ -225,13 +206,6 @@
   </si>
   <si>
     <t>sodass ich auf meine persönlichen Workout-Daten zugreifen kann.</t>
-  </si>
-  <si>
-    <t>sodass ich neue Workouts erfassen sowie bestehende anzeigen und auswerten kann.</t>
-  </si>
-  <si>
-    <t>- Tab-Wechsel zwischen Workout anlegen, Workouts einsehen und Statistik_x000D_
-- Übersichtliche Navigation</t>
   </si>
   <si>
     <t>sodass ich absolvierte Workouts dokumentieren kann.</t>
@@ -297,9 +271,6 @@
     <t>sodass ich schnell auf mein letzten Eintrag zugreifen kann.</t>
   </si>
   <si>
-    <t>möchte ich Workout-Vorlagen anlegen und wiederverwenden können.</t>
-  </si>
-  <si>
     <t>- Übung kann aus Liste ausgewählt werden
 - Übung ist mit Equipment verknüpft
 - Mehrere Übungen pro Workout möglich</t>
@@ -311,31 +282,13 @@
     <t>möchte ich mein Körpergewicht erfassen und den Verlauf einsehen können.</t>
   </si>
   <si>
-    <t>möchte ich einfache Statistiken zu meinen Workouts und Übungen einsehen können.</t>
-  </si>
-  <si>
     <t>möchte ich zu jeder Übung mehrere Sätze mit Gewicht und Wiederholungen erfassen können.</t>
   </si>
   <si>
-    <t>möchte ich bestehende Übungen bearbeiten oder löschen können.</t>
-  </si>
-  <si>
     <t>möchte ich bestehende Workouts bearbeiten oder löschen können.</t>
   </si>
   <si>
-    <t>möchte ich meine Workouts nach Datum filtern und zwischen Tagen wechseln können.</t>
-  </si>
-  <si>
-    <t>möchte ich meine vergangenen Workouts mit allen Übungen und zugehörigen Sätzen einsehen können.</t>
-  </si>
-  <si>
     <t>möchte ich im Hauptmenü eine Vorschau meines letzten Workout-Tages sehen können.</t>
-  </si>
-  <si>
-    <t>möchte ich im Hauptmenü ein neues Workout anlegen können.</t>
-  </si>
-  <si>
-    <t>möchte ich im Hauptmenü zwischen Workout anlegen, Workouts einsehen und Statistik wechseln können.</t>
   </si>
   <si>
     <t>möchte ich mich aus der Anwendung ausloggen können.</t>
@@ -356,7 +309,52 @@
 - Anzeige aktualisiert sich korrekt</t>
   </si>
   <si>
-    <t>möchte ich neue Übungen anlegen können, welche eine Muskelgruppe spezialisieren.</t>
+    <t>Übungen bearbeiten</t>
+  </si>
+  <si>
+    <t>- Übung kann bearbeitet werden
+- Änderungen werden gespeichert</t>
+  </si>
+  <si>
+    <t>möchte ich im Hauptmenü zwischen Workout-Vorschau, Anlegen, Workouts einsehen und Statistik wechseln können.</t>
+  </si>
+  <si>
+    <t>sodass ich neue Workouts/Übungen erfassen sowie bestehende anzeigen und auswerten kann.</t>
+  </si>
+  <si>
+    <t>möchte ich im Anlegenmenü ein neues Workout anlegen können.</t>
+  </si>
+  <si>
+    <t>möchte ich im Anlegenmenü neue Workout-Vorlagen anlegen und wiederverwenden können.</t>
+  </si>
+  <si>
+    <t>möchte ich im Workouteinsehenmenü meine Workouts nach Datum filtern und zwischen Tagen wechseln können.</t>
+  </si>
+  <si>
+    <t>- Tab-Wechsel ist möglich
+- Übersichtliche Navigation</t>
+  </si>
+  <si>
+    <t>möchte ich im Workouteinsehenmenü meine vergangenen Workouts mit allen Übungen und zugehörigen Sätzen einsehen können.</t>
+  </si>
+  <si>
+    <t>möchte ich im Anlegenmenü neue Übungen anlegen können, welche eine Muskelgruppe spezialisieren.</t>
+  </si>
+  <si>
+    <t>Sätze bearbeiten</t>
+  </si>
+  <si>
+    <t>möchte ich bestehende Sätze bearbeiten können.</t>
+  </si>
+  <si>
+    <t>möchte ich bestehende Übungen bearbeiten können.</t>
+  </si>
+  <si>
+    <t>- Sätze können bearbeitet werden
+- Änderungen werden gespeichert</t>
+  </si>
+  <si>
+    <t>möchte ich im Statistikmenü Auswertungen zu meinen Workouts und Übungen einsehen können.</t>
   </si>
 </sst>
 </file>
@@ -455,39 +453,72 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -522,20 +553,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35383E86-7FBF-4BC5-A1FB-8B8878744FCB}" name="Tabelle1" displayName="Tabelle1" ref="B4:L22" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35383E86-7FBF-4BC5-A1FB-8B8878744FCB}" name="Tabelle1" displayName="Tabelle1" ref="B4:L22" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="B4:L22" xr:uid="{35383E86-7FBF-4BC5-A1FB-8B8878744FCB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{25C8B47E-6BAC-4926-B248-911D3C771B26}" name="Priority" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{9CE9A60A-229A-4767-BF36-858767E4CC66}" name="BusinessValue" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3A030762-622D-4E41-9B8E-D710A45689B2}" name="Product Goal" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8E256A41-5702-4745-B9E8-A17D429DF600}" name="Theme" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CFB4564A-616C-4819-9D7C-AC6BA5930B49}" name="US_ID" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{BE11ABC0-35C9-4FDA-AEDC-7DFC4279495F}" name="As a…" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{0A30299E-AA3D-4857-8377-225ADFB10DEA}" name="I want to be able to …" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{BC54D1C0-A767-4AA9-9D83-23DDBA33D135}" name="So that…" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{09C01375-324D-4B4B-905F-C1021C7749D5}" name="StoryPoint" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{62F087AF-479D-4C5D-9AD4-902DF4124D3B}" name="Estimates (hours)" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{D45FF381-DA23-4472-8A72-DFADF546D694}" name="Acceptance Criteria" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{25C8B47E-6BAC-4926-B248-911D3C771B26}" name="Priority" dataDxfId="20" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{9CE9A60A-229A-4767-BF36-858767E4CC66}" name="BusinessValue" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{3A030762-622D-4E41-9B8E-D710A45689B2}" name="Product Goal" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{8E256A41-5702-4745-B9E8-A17D429DF600}" name="Theme" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{CFB4564A-616C-4819-9D7C-AC6BA5930B49}" name="US_ID" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{BE11ABC0-35C9-4FDA-AEDC-7DFC4279495F}" name="As a…" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{0A30299E-AA3D-4857-8377-225ADFB10DEA}" name="I want to be able to …" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{BC54D1C0-A767-4AA9-9D83-23DDBA33D135}" name="So that…" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{09C01375-324D-4B4B-905F-C1021C7749D5}" name="StoryPoint" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{62F087AF-479D-4C5D-9AD4-902DF4124D3B}" name="Estimates (hours)" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{D45FF381-DA23-4472-8A72-DFADF546D694}" name="Acceptance Criteria" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7C2921-B808-43C3-9286-7C3D73229528}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,19 +986,19 @@
         <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7">
         <v>5</v>
       </c>
       <c r="K5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,19 +1021,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J6" s="7">
         <v>3</v>
       </c>
       <c r="K6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -1025,19 +1056,19 @@
         <v>20</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J7" s="7">
         <v>3</v>
       </c>
       <c r="K7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -1060,22 +1091,22 @@
         <v>20</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="7">
         <v>2</v>
       </c>
       <c r="K8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1086,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
@@ -1095,19 +1126,19 @@
         <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="J9" s="7">
         <v>8</v>
       </c>
       <c r="K9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="90" x14ac:dyDescent="0.25">
@@ -1130,19 +1161,19 @@
         <v>20</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J10" s="7">
         <v>5</v>
       </c>
       <c r="K10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
@@ -1156,7 +1187,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7">
         <v>7</v>
@@ -1165,10 +1196,10 @@
         <v>20</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J11" s="7">
         <v>3</v>
@@ -1177,10 +1208,10 @@
         <v>2</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
@@ -1200,22 +1231,22 @@
         <v>20</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J12" s="7">
         <v>5</v>
       </c>
       <c r="K12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7">
         <v>9</v>
@@ -1235,22 +1266,22 @@
         <v>20</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J13" s="7">
         <v>3</v>
       </c>
       <c r="K13" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1270,19 +1301,19 @@
         <v>20</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
       </c>
       <c r="K14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -1305,7 +1336,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>24</v>
@@ -1314,13 +1345,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
@@ -1328,10 +1359,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7">
         <v>12</v>
@@ -1340,19 +1371,19 @@
         <v>20</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J16" s="7">
         <v>5</v>
       </c>
       <c r="K16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -1363,10 +1394,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7">
         <v>13</v>
@@ -1375,19 +1406,19 @@
         <v>20</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J17" s="7">
         <v>5</v>
       </c>
       <c r="K17" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -1398,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7">
         <v>14</v>
@@ -1410,19 +1441,19 @@
         <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J18" s="7">
         <v>2</v>
       </c>
       <c r="K18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="75" x14ac:dyDescent="0.25">
@@ -1433,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>22</v>
@@ -1445,19 +1476,19 @@
         <v>20</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J19" s="7">
         <v>8</v>
       </c>
       <c r="K19" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -1468,10 +1499,10 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7">
         <v>16</v>
@@ -1480,10 +1511,10 @@
         <v>20</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J20" s="7">
         <v>2</v>
@@ -1492,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1537,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7">
         <v>17</v>
@@ -1515,19 +1546,19 @@
         <v>20</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J21" s="7">
         <v>5</v>
       </c>
       <c r="K21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="60" x14ac:dyDescent="0.25">
@@ -1541,7 +1572,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7">
         <v>18</v>
@@ -1550,19 +1581,19 @@
         <v>20</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J22" s="7">
         <v>2</v>
       </c>
       <c r="K22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1583,21 +1614,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E1F8845C33455647BCED8A5F61F79A71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="987a12399871b4332326642248c91f12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d5e11d0132dc5bb78ad0fb0e89938ac">
     <xsd:element name="properties">
@@ -1711,10 +1727,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CD4954-40DF-4E1B-A417-8AC111E78ABB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B893B50-9589-4566-86E0-730C57593B52}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1731,17 +1770,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B893B50-9589-4566-86E0-730C57593B52}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CD4954-40DF-4E1B-A417-8AC111E78ABB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>